--- a/biology/Botanique/Parc_de_la_Perle_du_Lac/Parc_de_la_Perle_du_Lac.xlsx
+++ b/biology/Botanique/Parc_de_la_Perle_du_Lac/Parc_de_la_Perle_du_Lac.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le parc de la Perle-du-lac est un jardin public qui se situe à Genève, en Suisse. 
@@ -512,7 +524,9 @@
           <t>Situation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait partie d'une suite de parcs contigus : Parc Mon Repos, Parc Moynier, Parc Barton, et Parc William Rappard, sur la rive droite du lac Léman, en prolongation du quartier des Pâquis.
 </t>
@@ -543,9 +557,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le parc doit son nom à l'épouse de Hans Wilsdorf, fondateur de la société Rolex, qui se serait exclamée « Ceci est la perle du lac ! »[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le parc doit son nom à l'épouse de Hans Wilsdorf, fondateur de la société Rolex, qui se serait exclamée « Ceci est la perle du lac ! ».
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Contenu du parc</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc possède une grande pelouse fleurie, couramment appelée « jardin de la perle ». Une bâtisse de style florentin construite en 1829 accueille le Musée d'histoire des sciences de Genève. Un restaurant se trouve également dans le parc. Il dispose d'une belle terrasse offrant une vue sur le lac et le jet d'eau, avec (quand le temps est favorable) le Mont-Blanc en arrière-plan.
 </t>
